--- a/aggregated_order_details.xlsx
+++ b/aggregated_order_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,17 +448,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/1402?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://tcgplayer.com/product/10257?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/14983?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/104300?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/214841?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/11420?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,47 +478,47 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/218371?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/118595?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/240035?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/118641?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/268317?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/122846?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/279244?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/12383?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/282800?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://tcgplayer.com/product/124138?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/286521?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/126288?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/455567?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/128643?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457178?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/136610?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/457252?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/13836?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/478311?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/139934?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/487444?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+          <t>https://tcgplayer.com/product/14240?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/490536?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/14356?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,17 +598,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/499562?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/145327?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/499750?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/145495?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/519283?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/14572?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -628,17 +628,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/519303?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/161440?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/5300?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/161441?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -648,17 +648,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/530789?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/161448?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/530800?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/161523?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/531032?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/162150?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -678,17 +678,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/531207?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/169355?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/531219?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/182409?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -698,17 +698,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/531246?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/183324?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/70916?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/190720?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/91928?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played</t>
+          <t>https://tcgplayer.com/product/190999?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/91934?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played</t>
+          <t>https://tcgplayer.com/product/191059?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,17 +738,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/92832?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/191130?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/9407?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/198357?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/106521?irclickid=VGf1XW2k-xyKWHgV6XVKNVrtUkHXsp3RrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition+Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://tcgplayer.com/product/199092?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -768,27 +768,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/113744?irclickid=WcpXfu2h3xyKWHgV6XVKNVrtUkHXsPUBrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/202793?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/113745?irclickid=WFFSYY2h3xyKWHgV6XVKNVrtUkHXsPy5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/202846?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/113763?irclickid=XOYUWy2h0xyKWHgV6XVKNVrtUkHXsoV5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/203247?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/113764?irclickid=XQGU%3AQ2h0xyKWHgV6XVKNVrtUkHXsoV1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://tcgplayer.com/product/204462?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/113771?irclickid=XmARI72h0xyKWHgV6XVKNVrtUkHXsoVhrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/208575?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -818,17 +818,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/453470/pokemon-crown-zenith-crown-zenith-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+          <t>https://tcgplayer.com/product/208604?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/477052?irclickid=0XDxNz2hzxyKWHgV6XVKNVrtUkHXsM3VrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/216116?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/477057?irclickid=0krzac2h0xyKWHgV6XVKNVrtUkHXsr1NrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/218847?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/477060?irclickid=SQpTML2h2xyKWHgV6XVKNVrtUkHXsMwFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/218861?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -858,37 +858,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/477061?irclickid=SETXyl2h2xyKWHgV6XVKNVrtUkHXsMwZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/220195?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/478027?irclickid=xkiSax2hzxyKWHgV6XVKNVrtUkHXsMy9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/222336?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/478067?irclickid=wfxVNx2k6xyKWHgV6XVKNVrtUkHXsu2trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/222485?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/490074?irclickid=U4eXd12hwxyKWHgV6XVKNVrtUkHXsOSNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/222665?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534479?irclickid=0JPXVF2hwxyKWHgV6XVKNVrtUkHXsOxZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/226625?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534494?irclickid=0crRCO2hwxyKWHgV6XVKNVrtUkHXsOx9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/228732?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534515?irclickid=xDmx602hwxyKWHgV6XVKNVrtUkHXsOz1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/228735?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534582?irclickid=2TNWS92hwxyKWHgV6XVKNVrtUkHXsOwlrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/230137?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534634?irclickid=W9YWRI2hzxyKWHgV6XVKNVrtUkHXsJUVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/234963?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534694?irclickid=zlRQas2hwxyKWHgV6XVKNVrtUkHXsO3hrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/235135?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/534699?irclickid=Q9PUmc2hzxyKWHgV6XVKNVrtUkHXsJTtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/235290?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535110?irclickid=QatQUa2hzxyKWHgV6XVKNVrtUkHXsJTBrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/238612?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535122?irclickid=XBXVCx2hzxyKWHgV6XVKNVrtUkHXsJV9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/239609?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535135?irclickid=xlXUel2hwxyKWHgV6XVKNVrtUkHXsO25rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/239818?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535145?irclickid=2Hi1nz2hwxyKWHgV6XVKNVrtUkHXsOwdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/242371?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535153?irclickid=2hbQ5R2hwxyKWHgV6XVKNVrtUkHXsOwFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/246017?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535200?irclickid=2Eyxr42hwxyKWHgV6XVKNVrtUkHXsOwJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/248596?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/535956?irclickid=SRDwzF2hzxyKWHgV6XVKNVrtUkHXsJSVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/251750?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/538775/pokemon-sv05-temporal-forces-temporal-forces-pokemon-center-elite-trainer-box-exclusive-walking-wake?Language=English&amp;page=1&amp;ListingType=standard</t>
+          <t>https://tcgplayer.com/product/268317?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/85275?irclickid=wVU1ZZ2k6xyKWHgV6XVKNVrtUkHXsuxprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://tcgplayer.com/product/268508?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/85281?irclickid=wGK2Do2h2xyKWHgV6XVKNVrtUkHXsq2BrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition+Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+          <t>https://tcgplayer.com/product/272554?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1068,10 +1068,1850 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/88797?irclickid=wj1zr82k6xyKWHgV6XVKNVrtUkHXsuxJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/273730?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/276322?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/276660?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/279269?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/279271?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/279275?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/282749?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/283614?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/28540?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/287087?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/287160?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/287162?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/287952?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/288182?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/296?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/34444?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/3574?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/36344?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/37691?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38302?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38313?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38339?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38340?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38365?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/38639?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/39333?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/39595?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4166?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4366?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/449620?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/450573?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/450593?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/450595?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/452255?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/452439?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4534?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/457226?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/457259?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/458099?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4633?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/47381?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/475524?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4775?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/478522?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/488281?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/490359?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/490496?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/491272?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/491761?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/4917?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/491845?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/492699?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/496050?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/496064?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/498332?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/498460?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/498470?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/499327?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/499750?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/504169?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/504286?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505004?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505035?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505133?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505145?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505778?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/506621?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/513021?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/514476?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/514477?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/517603?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/517666?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/520230?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/52174?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/52206?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/523071?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/524304?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/525615?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/525729?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/525942?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/528290?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/528291?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/530842?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/531055?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/531196?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/535987?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/539352?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/540962?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/541298?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/5433?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/544242?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/545311?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/550772?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/5581?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/5587?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/5646?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/59993?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/6284?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/6323?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/68399?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/69121?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/69184?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/8791?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played|Heavily+Played</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/91038?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/91273?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/91920?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played|Moderately+Played</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/92831?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/9404?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/9712?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/98648?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/undefined?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/113750?irclickid=QRdxKg2h3xyKWHgV6XVKNVrtUkHXsPWZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/113766?irclickid=TcnUfP2h3xyKWHgV6XVKNVrtUkHXsPW1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/113770?irclickid=Wa0WMV2h3xyKWHgV6XVKNVrtUkHXsPUtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/118861?irclickid=Ss4zdx2hyxyKWHgV6XVKNVrtUkHXscTVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/124125?irclickid=03owYu2h3xyKWHgV6XVKNVrtUkHXsN3prRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/183771?irclickid=TlrVS-2h0xyKWHgV6XVKNVrtUkHXsoUlrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189321?irclickid=SGdXj62k6xyKWHgV6XVKNVrtUkHXsrwlrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/206028/pokemon-swsh01-sword-and-shield-base-set-sword-and-shield-booster-pack?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/216852/pokemon-swsh03-darkness-ablaze-darkness-ablaze-booster-pack?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/221312/pokemon-swsh04-vivid-voltage-vivid-voltage-booster-pack?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/232496?irclickid=QmvySa2k-xyKWHgV6XVKNVrtUkHXspwVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/241805?irclickid=TIUzi02hyxyKWHgV6XVKNVrtUkHXscwdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/242443/pokemon-swsh07-evolving-skies-evolving-skies-elite-trainer-box-glaceon-vaporeon-sylveon-espeon?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/244337/pokemon-swsh07-evolving-skies-evolving-skies-booster-pack?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/246704?irclickid=T6d39R2k-xyKWHgV6XVKNVrtUkHXspzNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/246756?irclickid=T%3A0UQ02k-xyKWHgV6XVKNVrtUkHXspztrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250294?irclickid=z2N1PG2hyxyKWHgV6XVKNVrtUkHXsK3lrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250319?irclickid=2Rz2KM2hyxyKWHgV6XVKNVrtUkHXsKwZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250320?irclickid=Q8yzXW2h0xyKWHgV6XVKNVrtUkHXsoW5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250321?irclickid=xfExOb2hyxyKWHgV6XVKNVrtUkHXsKwhrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250322?irclickid=zfEVMn2hyxyKWHgV6XVKNVrtUkHXsKyJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250324?irclickid=zlKXZ92hyxyKWHgV6XVKNVrtUkHXsK3ZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250325?irclickid=SIYwKC2h0xyKWHgV6XVKNVrtUkHXsoSJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250327?irclickid=SXZ3RN2h0xyKWHgV6XVKNVrtUkHXsoXdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250330?irclickid=2pdWz52hyxyKWHgV6XVKNVrtUkHXsK1FrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250331?irclickid=2q%3AXzf2hyxyKWHgV6XVKNVrtUkHXsK1trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250334?irclickid=zSWyM%3A2hyxyKWHgV6XVKNVrtUkHXsK3JrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250335?irclickid=2d2Xx12hyxyKWHgV6XVKNVrtUkHXsK19rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250336?irclickid=278y4i2hyxyKWHgV6XVKNVrtUkHXsK3RrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250337?irclickid=2P4xuW2hyxyKWHgV6XVKNVrtUkHXsK1ZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250339?irclickid=22cSWT2hyxyKWHgV6XVKNVrtUkHXsKwJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250340?irclickid=2DvQQh2hyxyKWHgV6XVKNVrtUkHXsK1hrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/250342?irclickid=2liT4W2hyxyKWHgV6XVKNVrtUkHXsK11rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/253419?irclickid=y4%3AX5e2h0xyKWHgV6XVKNVrtUkHXso2JrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/263873?irclickid=QcU3rh2k-xyKWHgV6XVKNVrtUkHXsp1xrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264203?irclickid=QBDXuX2h1xyKWHgV6XVKNVrtUkHXsN0lrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264205?irclickid=QCQwwQ2h1xyKWHgV6XVKNVrtUkHXsN0FrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264212?irclickid=VW0RmV2h1xyKWHgV6XVKNVrtUkHXsNxtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264214?irclickid=VlHVlL2h1xyKWHgV6XVKNVrtUkHXsNx5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264216?irclickid=VSOSOU2h1xyKWHgV6XVKNVrtUkHXsNxNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264217?irclickid=QfPQ1Q2h1xyKWHgV6XVKNVrtUkHXsNx1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264218?irclickid=3qvXPZ2hxxyKWHgV6XVKNVrtUkHXstThrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264224?irclickid=QypUhh2h1xyKWHgV6XVKNVrtUkHXsISdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264228?irclickid=TiMWWV2h1xyKWHgV6XVKNVrtUkHXsIXtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/264231?irclickid=QcbRVP2h1xyKWHgV6XVKNVrtUkHXsN05rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/272478?irclickid=RalygG2h1xyKWHgV6XVKNVrtUkHXsIQ1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/272482?irclickid=RLc1B42h1xyKWHgV6XVKNVrtUkHXsITZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/272489?irclickid=SvLS%3Ao2h0xyKWHgV6XVKNVrtUkHXsoSFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/272495?irclickid=VYJV5u2h0xyKWHgV6XVKNVrtUkHXsoQFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/284251?irclickid=26u1j62h1xyKWHgV6XVKNVrtUkHXsI0prRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/285396?irclickid=UYAxsv2h0xyKWHgV6XVKNVrtUkHXsow1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/45134?irclickid=SYuQxB2k-xyKWHgV6XVKNVrtUkHXspWRrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition+Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/452021?irclickid=z-iWby2h3xyKWHgV6XVKNVrtUkHXsNVxrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/452025?irclickid=wirw4L2h3xyKWHgV6XVKNVrtUkHXsNVNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/452028?irclickid=zZrV372h3xyKWHgV6XVKNVrtUkHXsNQNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/452033?irclickid=zWpSgC2h3xyKWHgV6XVKNVrtUkHXsNTJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/453466/pokemon-crown-zenith-crown-zenith-booster-pack?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/497607?irclickid=yN5WVV2hwxyKWHgV6XVKNVrtUkHXsOVtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/497628?irclickid=QVm3DY2hyxyKWHgV6XVKNVrtUkHXsc1NrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/497630?irclickid=QsQx8Z2hyxyKWHgV6XVKNVrtUkHXsc3RrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/497631?irclickid=X1gWq82h1xyKWHgV6XVKNVrtUkHXsNzRrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/502556?irclickid=RAXVVR2hxxyKWHgV6XVKNVrtUkHXstS9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/504467/pokemon-sv-scarlet-and-violet-151-151-booster-pack?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/512809/pokemon-sv04-paradox-rift-paradox-rift-pokemon-center-elite-trainer-box-exclusive-roaring-moon?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/512822/pokemon-sv04-paradox-rift-paradox-rift-booster-pack?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/517047?irclickid=RYXR-f2hxxyKWHgV6XVKNVrtUkHXsv0trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/542886?irclickid=XHq2tR2h1xyKWHgV6XVKNVrtUkHXsNzZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/83827?irclickid=XP1x6m2hUxyKWHgV6XVKNVrtUkHXsewNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/83868?irclickid=SFiV-q2hxxyKWHgV6XVKNVrtUkHXsvW1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=1st+Edition&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/86015?irclickid=XJ-Taa2h3xyKWHgV6XVKNVrtUkHXsPX9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/87566?irclickid=wheTta2hwxyKWHgV6XVKNVrtUkHXsOydrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/89899?irclickid=Xa2QnL2h3xyKWHgV6XVKNVrtUkHXsPShrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/90130?irclickid=XnrXMF2h3xyKWHgV6XVKNVrtUkHXsPXFrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/96603/magic-magic-origins-liliana-heretical-healer?Printing=Normal&amp;Condition=Near+Mint&amp;Language=English&amp;page=1</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
         <v>1</v>
       </c>
     </row>

--- a/aggregated_order_details.xlsx
+++ b/aggregated_order_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,27 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://tcgplayer.com/product/296?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/104400?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250294?irclickid=z2N1PG2hyxyKWHgV6XVKNVrtUkHXsK3lrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/118420?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250319?irclickid=2Rz2KM2hyxyKWHgV6XVKNVrtUkHXsKwZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/129564?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,27 +478,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250324?irclickid=zlKXZ92hyxyKWHgV6XVKNVrtUkHXsK3ZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/161851?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250326?irclickid=zUYyxB2hyxyKWHgV6XVKNVrtUkHXsK3FrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/192640?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250331?irclickid=2q%3AXzf2hyxyKWHgV6XVKNVrtUkHXsK1trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/206648?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,37 +508,37 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250334?irclickid=zSWyM%3A2hyxyKWHgV6XVKNVrtUkHXsK3JrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/214901?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250336?irclickid=278y4i2hyxyKWHgV6XVKNVrtUkHXsK3RrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/221822?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250337?irclickid=2P4xuW2hyxyKWHgV6XVKNVrtUkHXsK1ZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/234341?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250339?irclickid=22cSWT2hyxyKWHgV6XVKNVrtUkHXsKwJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/235146?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250340?irclickid=2DvQQh2hyxyKWHgV6XVKNVrtUkHXsK1hrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/273302?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/250341?irclickid=SU9Wfe2h0xyKWHgV6XVKNVrtUkHXsoXNrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/275172?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/264204?irclickid=Q-Ryh%3A2h1xyKWHgV6XVKNVrtUkHXsNxhrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/276325?&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/264212?irclickid=VW0RmV2h1xyKWHgV6XVKNVrtUkHXsNxtrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/3737?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,10 +588,650 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.tcgplayer.com/product/264234?irclickid=TJHRqQ2h1xyKWHgV6XVKNVrtUkHXsIS1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+          <t>https://tcgplayer.com/product/456826?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/457273?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/457276?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/480529?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/498469?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/499536?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/505595?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/507170?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/518140?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/518164?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/518165?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/519234?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/523074?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/523131?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/525885?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/525997?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/526053?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/526074?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/528290?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/528291?Printing=Foil&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/539453?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/544934?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/549566?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/7044?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint|Lightly+Played</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/7549?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/91038?Printing=Normal&amp;Language=English&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/95368?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://tcgplayer.com/product/95389?&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/113697?irclickid=VnzXRD2hUxyKWHgV6XVKNVrtUkHXse2FrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/113764?irclickid=XQGU%3AQ2h0xyKWHgV6XVKNVrtUkHXsoV1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Lightly+Played|Near+Mint</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/133776/pokemon-sm-burning-shadows-burning-shadows-elite-trainer-box?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/138521?irclickid=V2fTjf2h3xyKWHgV6XVKNVrtUkHXsPQVrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/149040?irclickid=Xn0SoVz74xyKTwPUY-1ZYXXLUkCxj62trRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/185985?irclickid=z17X4n2k6xyKWHgV6XVKNVrtUkHXspSJrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189243?irclickid=yrs1S22hyxyKWHgV6XVKNVrtUkHXsKV5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189256?irclickid=WzASaY2hyxyKWHgV6XVKNVrtUkHXsc21rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189307?irclickid=WalX8V2h0xyKWHgV6XVKNVrtUkHXsoyprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189321?irclickid=SGdXj62k6xyKWHgV6XVKNVrtUkHXsrwlrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189322?irclickid=X4DQMk2k6xyKWHgV6XVKNVrtUkHXsrzprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/189325?irclickid=SUITXf2k6xyKWHgV6XVKNVrtUkHXsrzdrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/195089?irclickid=TSkVpj2h0xyKWHgV6XVKNVrtUkHXsoURrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/197872?irclickid=zKuRsL2k6xyKWHgV6XVKNVrtUkHXsu0NrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/201252?irclickid=Ww%3AV97z7-xyKTwPUY-1ZYXXLUkCxg2x1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/218791/pokemon-champions-path-champions-path-elite-trainer-box?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/226710/magic-commander-legends-ramos-dragon-engine-foil-etched?Language=English&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/234052?irclickid=1sa1sv2h1xyKWHgV6XVKNVrtUkHXsIwZrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/256138/pokemon-swsh09-brilliant-stars-brilliant-stars-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/277335/pokemon-swsh11-lost-origin-lost-origin-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/42543?irclickid=0j00IP2h3xyKWHgV6XVKNVrtUkHXsN3drRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/476451/pokemon-sv01-scarlet-and-violet-base-set-scarlet-and-violet-booster-pack?Language=English&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/478041?irclickid=y4gyBj2hyxyKWHgV6XVKNVrtUkHXsKXprRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/493974/pokemon-sv02-paldea-evolved-paldea-evolved-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/493976/pokemon-sv02-paldea-evolved-paldea-evolved-booster-pack?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/501264/pokemon-sv03-obsidian-flames-obsidian-flames-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/503313/pokemon-sv-scarlet-and-violet-151-151-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/512822/pokemon-sv04-paradox-rift-paradox-rift-booster-pack?page=1&amp;Language=English&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/517034?irclickid=SGb1X72hyxyKWHgV6XVKNVrtUkHXscT1rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/523929?irclickid=WtXwaE2hxxyKWHgV6XVKNVrtUkHXsvx5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/528040/pokemon-sv-paldean-fates-paldean-fates-elite-trainer-box?Condition=Unopened&amp;Language=all&amp;page=1&amp;ListingType=standard</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/535174?irclickid=SSszWO2hzxyKWHgV6XVKNVrtUkHXsJSBrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/550140?irclickid=TckUCaz7-xyKTwPUY-1ZYXXLUkCxg2z5rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Holofoil&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/83684?irclickid=RbHVg-2hwxyKWHgV6XVKNVrtUkHXsLxRrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/83690?irclickid=R5cwI-2hwxyKWHgV6XVKNVrtUkHXsLxhrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/84357?irclickid=Wm9Xp-2hwxyKWHgV6XVKNVrtUkHXsLx9rRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.tcgplayer.com/product/84827?irclickid=VkR2uY2hUxyKWHgV6XVKNVrtUkHXse2hrRa%3AX80&amp;sharedid=&amp;irpid=4944541&amp;irgwc=1&amp;utm_source=impact&amp;utm_medium=affiliate&amp;utm_campaign=Scrydex&amp;Printing=Normal&amp;ListingType=standard&amp;page=1&amp;Condition=Near+Mint</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
         <v>1</v>
       </c>
     </row>
